--- a/medicine/Enfance/James_Thurber/James_Thurber.xlsx
+++ b/medicine/Enfance/James_Thurber/James_Thurber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Thurber, né le 8 décembre 1894 à Colombus (Ohio) et mort le 2 novembre 1961 à New York, est un éditorialiste, humoriste et écrivain américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">James Grover Thurber naît le 8 décembre 1894 à Colombus, dans l'Ohio. À l'âge de six ans, il se perce l’œil droit avec un jouet. Cet incident lui fait développer par la suite le syndrome de Charles Bonnet. Certains disent que cette maladie serait en partie à l'origine de sa grande créativité.
 Il fait ses études à l'Université de l'Ohio avant de s'installer à Paris en 1918 où il travaille pour l'ambassade des États-Unis et, en même temps, tient lieu de correspondant du Chicago Tribune jusqu'en 1921.
-Son activité est essentiellement journalistique jusqu'en 1927. Il est à la fois chroniqueur, illustrateur, humoriste avant de se tourner vers une littérature très personnelle, dont le style, réputé difficile à définir[2], se rapproche de celui d'Alexandre Vialatte et parfois aussi de Boris Vian.
+Son activité est essentiellement journalistique jusqu'en 1927. Il est à la fois chroniqueur, illustrateur, humoriste avant de se tourner vers une littérature très personnelle, dont le style, réputé difficile à définir, se rapproche de celui d'Alexandre Vialatte et parfois aussi de Boris Vian.
 </t>
         </is>
       </c>
@@ -546,12 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Dernière Fleur, parabole en image
-Le texte a été traduit en 1952 par Albert Camus[3].
-La Vie secrète de Walter Mitty
-La nouvelle principale de ce recueil a été adaptée au cinéma sous le titre de La vie secrète de Walter Mitty par Norman Z. McLeod en 1947.
-En 1975, une nouvelle adaptation, en dessin animé cette fois, a été réalisée : Les Vies secrètes de Waldo Kitty.
-Ben Stiller adapte de nouveau le roman de James Thurber : le film, sorti en 2014, s'intitule La Vie rêvée de Walter Mitty.
+          <t>La Dernière Fleur, parabole en image</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le texte a été traduit en 1952 par Albert Camus.
 </t>
         </is>
       </c>
@@ -577,13 +592,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La Vie secrète de Walter Mitty</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nouvelle principale de ce recueil a été adaptée au cinéma sous le titre de La vie secrète de Walter Mitty par Norman Z. McLeod en 1947.
+En 1975, une nouvelle adaptation, en dessin animé cette fois, a été réalisée : Les Vies secrètes de Waldo Kitty.
+Ben Stiller adapte de nouveau le roman de James Thurber : le film, sorti en 2014, s'intitule La Vie rêvée de Walter Mitty.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James_Thurber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Thurber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En anglais
-Is Sex Necessary? or, Why You Feel The Way You Do, avec E. B. White), 1929, édition du 75e anniversaire (2004) avant-propos de John Updike,  (ISBN 0-06-073314-4)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Is Sex Necessary? or, Why You Feel The Way You Do, avec E. B. White), 1929, édition du 75e anniversaire (2004) avant-propos de John Updike,  (ISBN 0-06-073314-4)
 The Owl in the Attic and Other Perplexities, 1931
 The Seal in the Bedroom and Other Predicaments, 1932
 My Life and Hard Times, 1933  (ISBN 0-06-093308-9)
@@ -619,9 +678,43 @@
 People Have More Fun Than Anybody: A Centennial Celebration of Drawings and Writings by James Thurber, 1994 (éd. Michael J. Rosen)
 James Thurber: Writings and Drawings, 1996, (éd. Garrison Keillor), Library of America,  (ISBN 978-1-883011-22-2)
 The Dog Department: James Thurber on Hounds, Scotties, and Talking Poodles, 2001 (éd. Michael J. Rosen)
-The Thurber Letters, 2002 (éd. Harrison Kinney, avecRosemary A. Thurber)
-Traductions françaises
-Ma chienne de vie, traduit de l'anglais (My life and hard times) par Jeanne Guyon, Payot et Rivages, 2008  (ISBN 978-2-7436-1820-9)
+The Thurber Letters, 2002 (éd. Harrison Kinney, avecRosemary A. Thurber)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>James_Thurber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Thurber</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ma chienne de vie, traduit de l'anglais (My life and hard times) par Jeanne Guyon, Payot et Rivages, 2008  (ISBN 978-2-7436-1820-9)
 La Vie secrète de Walter Mitty, recueil de nouvelles, de fables et de dessins sans équivalent américain et dont la première nouvelle (The secret life of Walter Mitty, 1939) donne son nom à l'ouvrage, traduit de l'anglais par Christiane Potesta et Claude Dalla Torre, préface de Jacques Sternberg, R. Laffont, 2008  (ISBN 978-2-221-11156-7), première édition Julliard, 1963
 Le Sexe pour quoi faire ?, avec E. B. White, traduction de l'anglais (Is sex necessary?) par Jean-Christophe Valtat, 10-18, 2001  (ISBN 2-264-03188-3)
 Le Chien qui mordait les gens, suivi de La nuit où le fantôme apparut, traduction de l'anglais (édition bilingue de The dog that bit people et The night the ghost got in) par Jeanne Guyon, éd. du Rocher, 1998  (ISBN 2-268-02944-1)
